--- a/req-pry-cashcoin.xlsx
+++ b/req-pry-cashcoin.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgzjz/zlU1s8d27B2rKVsqPyVqhUQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mikt9AQSTPiWsyOM5BcNYysHI/Qbw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>Funcionales</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>RF10</t>
+  </si>
+  <si>
+    <t>El sistema enviara notificaciones y consejos al usuario para mantener un balance de ahorros estable.</t>
+  </si>
+  <si>
+    <t>negocio/usuario</t>
+  </si>
+  <si>
+    <t>RF11</t>
   </si>
   <si>
     <t>El sistema estara conectado a una base ded atos la cual le permitirta almacenar y obtener informacion</t>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,7 +347,7 @@
     <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -350,17 +359,26 @@
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -377,7 +395,7 @@
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -389,10 +407,10 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +797,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -791,146 +809,160 @@
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="14"/>
-    </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="14"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="14"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="14"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="14"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="14"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="14"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="C23" s="17"/>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="15"/>
-    </row>
+    <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="15"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="15"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="15"/>
+      <c r="B32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="15"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="15"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="15"/>
+      <c r="B35" s="18"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="15"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="15"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="15"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="15"/>
+      <c r="B40" s="18"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="15"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="15"/>
+      <c r="B42" s="18"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="15"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="15"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="15"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="15"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="15"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="15"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="15"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="15"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="15"/>
+      <c r="B54" s="18"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="15"/>
+      <c r="B55" s="18"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="15"/>
+      <c r="B56" s="18"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="15"/>
+      <c r="B57" s="18"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1"/>
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="18"/>
+    </row>
     <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
@@ -1848,6 +1880,7 @@
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1875,12 +1908,12 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3">
       <c r="C3" s="4" t="s">
@@ -1897,170 +1930,170 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="18" t="s">
-        <v>30</v>
+      <c r="C4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="21" t="s">
-        <v>32</v>
+      <c r="C5" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="21" t="s">
-        <v>34</v>
+      <c r="C6" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="21" t="s">
-        <v>38</v>
+      <c r="C8" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="21" t="s">
-        <v>40</v>
+      <c r="C9" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="21" t="s">
-        <v>42</v>
+      <c r="C10" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="21" t="s">
-        <v>46</v>
+      <c r="C12" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="14"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="14"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="14"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
